--- a/data-raw/data-tidy/tech-yearbook/part01-over/02-spend-intense/2019.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part01-over/02-spend-intense/2019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">province</t>
   </si>
@@ -38,106 +38,115 @@
     <t xml:space="preserve">2019</t>
   </si>
   <si>
-    <t xml:space="preserve">R&amp;D强度</t>
+    <t xml:space="preserve">RD经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亿元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v4_ztr_jf_RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内蒙古</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辽宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吉林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑龙江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安徽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">福建</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖北</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广东</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">云南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西藏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甘肃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宁夏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD强度</t>
   </si>
   <si>
     <t xml:space="preserve">%</t>
   </si>
   <si>
-    <t xml:space="preserve">v4_zh_qd_RD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内蒙古</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吉林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑龙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江苏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浙江</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安徽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">福建</t>
-  </si>
-  <si>
-    <t xml:space="preserve">江西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">河南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖北</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湖南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">海南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贵州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">云南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西藏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陕西</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甘肃</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青海</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宁夏</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新疆</t>
+    <t xml:space="preserve">v4_ztr_qd_RD</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.23</v>
+        <v>22143.6</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +529,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6.31</v>
+        <v>2233.6</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.28</v>
+        <v>463</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.61</v>
+        <v>566.7</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>191.2</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>147.8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>2.04</v>
+        <v>508.5</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.27</v>
+        <v>148.4</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1.08</v>
+        <v>146.6</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1524.6</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>2.79</v>
+        <v>2779.5</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>2.68</v>
+        <v>1669.8</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>2.03</v>
+        <v>754</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>1.78</v>
+        <v>753.7</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1.55</v>
+        <v>384.3</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>2.1</v>
+        <v>1494.7</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>1.46</v>
+        <v>793</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>2.09</v>
+        <v>957.9</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>1.98</v>
+        <v>787.2</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>2.88</v>
+        <v>3098.5</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>0.79</v>
+        <v>167.1</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.56</v>
+        <v>29.9</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>1.99</v>
+        <v>469.6</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>1.87</v>
+        <v>871</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.86</v>
+        <v>144.7</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>0.95</v>
+        <v>220</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>4.3</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>2.27</v>
+        <v>584.6</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>1.26</v>
+        <v>110.2</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.69</v>
+        <v>20.6</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>1.45</v>
+        <v>54.5</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,13 +1129,653 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="n">
         <v>0.47</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
